--- a/docs/2016/1. Informacion Anual/1. Ingresos/IAII-GTO-UPP-IA-16.xml.xlsx
+++ b/docs/2016/1. Informacion Anual/1. Ingresos/IAII-GTO-UPP-IA-16.xml.xlsx
@@ -196,10 +196,10 @@
     <t>INFORMACIÓN ADICIONAL A LA INICIATIVA DE INGRESOS</t>
   </si>
   <si>
+    <t>Ente Público:UNIVERSIDAD POLITÉCNICA DE PÉNJAMO</t>
+  </si>
+  <si>
     <t>Información Anual del Ejercicio Fiscal 2016</t>
-  </si>
-  <si>
-    <t>Ente Público:UNIVERSIDAD POLITÉCNICA DE PÉNJAMO</t>
   </si>
 </sst>
 </file>
@@ -839,10 +839,10 @@
     <xf numFmtId="164" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1084,6 +1084,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25128</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1047524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="364375" y="300103"/>
+          <a:ext cx="1022396" cy="514378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1405,7 +1443,7 @@
   <dimension ref="A2:C64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1467,7 @@
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -1446,7 +1484,7 @@
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -1462,20 +1500,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="16">
-        <f>SUM(C13+C23+C29+C32+C39+C43+C47+C51+C55+C62)</f>
-        <v>64319961.960000008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+C13+C23+C29+C32+C39+C43+C47+C51+C55+C62</f>
+        <v>18636350.760000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="16">
+        <f>SUM(C14:C22)</f>
         <v>0</v>
       </c>
     </row>
@@ -1551,11 +1590,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="16">
+        <f>SUM(C24:C28)</f>
         <v>0</v>
       </c>
     </row>
@@ -1599,11 +1639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="16">
+        <f>SUM(C30:C31)</f>
         <v>0</v>
       </c>
     </row>
@@ -1623,11 +1664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="16">
+        <f>SUM(C33:C38)</f>
         <v>0</v>
       </c>
     </row>
@@ -1679,13 +1721,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="16">
         <f>SUM(C40:C42)</f>
-        <v>1170728.48</v>
+        <v>973125</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
@@ -1693,7 +1735,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="7">
-        <v>1170728.48</v>
+        <v>973125</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
@@ -1712,13 +1754,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="16">
         <f>SUM(C44:C46)</f>
-        <v>1343587</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -1726,7 +1768,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="7">
-        <v>4915</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
@@ -1742,16 +1784,16 @@
         <v>33</v>
       </c>
       <c r="C46" s="7">
-        <v>1338672</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="16">
         <f>SUM(C48:C50)</f>
-        <v>2782000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
@@ -1759,7 +1801,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="7">
-        <v>2782000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
@@ -1778,13 +1820,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="16">
         <f>SUM(C52:C54)</f>
-        <v>37401268.670000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -1792,7 +1834,7 @@
         <v>39</v>
       </c>
       <c r="C52" s="7">
-        <v>24020806.670000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
@@ -1808,16 +1850,16 @@
         <v>41</v>
       </c>
       <c r="C54" s="7">
-        <v>13380462</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="16">
         <f>SUM(C56:C61)</f>
-        <v>21622377.809999999</v>
+        <v>17657645.760000002</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
@@ -1825,7 +1867,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="7">
-        <v>21622377.809999999</v>
+        <v>17657645.760000002</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -1868,11 +1910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C62" s="16">
+        <f>SUM(C63:C64)</f>
         <v>0</v>
       </c>
     </row>
@@ -1902,7 +1945,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>